--- a/sys_DRAMA.xlsx
+++ b/sys_DRAMA.xlsx
@@ -283,22 +283,22 @@
     <t>Drama</t>
   </si>
   <si>
-    <t>com</t>
-  </si>
-  <si>
-    <t>dog</t>
-  </si>
-  <si>
-    <t>kyo</t>
-  </si>
-  <si>
-    <t>a-1</t>
-  </si>
-  <si>
-    <t>map</t>
-  </si>
-  <si>
-    <t>ler</t>
+    <t>comi</t>
+  </si>
+  <si>
+    <t>doga</t>
+  </si>
+  <si>
+    <t>kyot</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a-1 </t>
+  </si>
+  <si>
+    <t>mapp</t>
+  </si>
+  <si>
+    <t>lerc</t>
   </si>
 </sst>
 </file>

--- a/sys_DRAMA.xlsx
+++ b/sys_DRAMA.xlsx
@@ -25,7 +25,7 @@
     <t>System1</t>
   </si>
   <si>
-    <t>Cube</t>
+    <t>role code</t>
   </si>
   <si>
     <t>miyamizumitsuha</t>

--- a/sys_DRAMA.xlsx
+++ b/sys_DRAMA.xlsx
@@ -25,7 +25,7 @@
     <t>System1</t>
   </si>
   <si>
-    <t>role code</t>
+    <t>Cube</t>
   </si>
   <si>
     <t>miyamizumitsuha</t>
@@ -283,22 +283,22 @@
     <t>Drama</t>
   </si>
   <si>
-    <t>comi</t>
-  </si>
-  <si>
-    <t>doga</t>
-  </si>
-  <si>
-    <t>kyot</t>
-  </si>
-  <si>
-    <t xml:space="preserve">a-1 </t>
-  </si>
-  <si>
-    <t>mapp</t>
-  </si>
-  <si>
-    <t>lerc</t>
+    <t>com</t>
+  </si>
+  <si>
+    <t>dog</t>
+  </si>
+  <si>
+    <t>kyo</t>
+  </si>
+  <si>
+    <t>a-1</t>
+  </si>
+  <si>
+    <t>map</t>
+  </si>
+  <si>
+    <t>ler</t>
   </si>
 </sst>
 </file>
